--- a/data/trans_orig/P6510-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D47F9A-A2F2-4FD2-927A-FCB005F5B876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C412E22-AD33-4F63-9EF6-480DF19F2548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BAB8CBA8-7553-4E26-BA2E-73DD3C72EA22}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5080D747-A315-4754-957D-C1A949CAA18E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>17,46%</t>
+    <t>19,51%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,88%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>37,1%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,142 +164,139 @@
     <t>30,04%</t>
   </si>
   <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
     <t>24,05%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>31,08%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
   </si>
   <si>
     <t>33,29%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
+    <t>28,41%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -308,427 +305,418 @@
     <t>21,42%</t>
   </si>
   <si>
-    <t>17,89%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
+    <t>28,78%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>19,03%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1143,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F34F069-1FCD-4AB6-8694-53637B84372F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE82551-0766-4878-AC0F-C5E5CF329F03}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1620,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -1641,13 +1629,13 @@
         <v>37487</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>142</v>
@@ -1656,13 +1644,13 @@
         <v>146430</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1665,13 @@
         <v>73019</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -1692,13 +1680,13 @@
         <v>18592</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -1707,13 +1695,13 @@
         <v>91611</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1757,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1769,13 @@
         <v>119715</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -1796,13 +1784,13 @@
         <v>70104</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -1811,13 +1799,13 @@
         <v>189820</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1820,13 @@
         <v>129507</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -1847,13 +1835,13 @@
         <v>52262</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>166</v>
@@ -1862,13 +1850,13 @@
         <v>181769</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1871,13 @@
         <v>141596</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -1898,13 +1886,13 @@
         <v>76432</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -1913,13 +1901,13 @@
         <v>218028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1922,13 @@
         <v>168077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -1949,13 +1937,13 @@
         <v>68928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -1964,13 +1952,13 @@
         <v>237005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2014,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2026,13 @@
         <v>157338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -2053,13 +2041,13 @@
         <v>78363</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>226</v>
@@ -2068,13 +2056,13 @@
         <v>235700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2077,13 @@
         <v>67882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2104,13 +2092,13 @@
         <v>44071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -2119,13 +2107,13 @@
         <v>111953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2128,13 @@
         <v>80358</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -2155,13 +2143,13 @@
         <v>46742</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -2170,13 +2158,13 @@
         <v>127100</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2179,13 @@
         <v>100857</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -2206,13 +2194,13 @@
         <v>42789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -2221,13 +2209,13 @@
         <v>143646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,7 +2271,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2295,13 +2283,13 @@
         <v>162948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>107</v>
@@ -2310,13 +2298,13 @@
         <v>115231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>279</v>
@@ -2325,13 +2313,13 @@
         <v>278180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2334,13 @@
         <v>104687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -2361,13 +2349,13 @@
         <v>66817</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -2376,13 +2364,13 @@
         <v>171503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2385,13 @@
         <v>162062</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>116</v>
@@ -2412,13 +2400,13 @@
         <v>123283</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -2427,13 +2415,13 @@
         <v>285345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2436,13 @@
         <v>123798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>80</v>
@@ -2463,13 +2451,13 @@
         <v>82792</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>209</v>
@@ -2478,13 +2466,13 @@
         <v>206590</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,7 +2514,7 @@
         <v>939</v>
       </c>
       <c r="N28" s="7">
-        <v>941617</v>
+        <v>941618</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2552,13 +2540,13 @@
         <v>491269</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>283</v>
@@ -2567,28 +2555,28 @@
         <v>298092</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>756</v>
       </c>
       <c r="N29" s="7">
-        <v>789362</v>
+        <v>789361</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2591,13 @@
         <v>414776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>208</v>
@@ -2618,13 +2606,13 @@
         <v>216821</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>607</v>
@@ -2633,13 +2621,13 @@
         <v>631597</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2642,13 @@
         <v>514077</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>277</v>
@@ -2669,13 +2657,13 @@
         <v>289290</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>770</v>
@@ -2684,13 +2672,13 @@
         <v>803366</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2693,13 @@
         <v>482852</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>212</v>
@@ -2720,28 +2708,28 @@
         <v>220116</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>55</v>
       </c>
       <c r="M32" s="7">
         <v>669</v>
       </c>
       <c r="N32" s="7">
-        <v>702968</v>
+        <v>702967</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2771,7 @@
         <v>2802</v>
       </c>
       <c r="N33" s="7">
-        <v>2927293</v>
+        <v>2927292</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2797,7 +2785,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C412E22-AD33-4F63-9EF6-480DF19F2548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF815FFD-F99C-4799-B3BA-2DC93A69E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5080D747-A315-4754-957D-C1A949CAA18E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{353D8815-3F7D-4CF8-B96D-27965B238BFE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,28 +74,28 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,88%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>37,1%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,535 +164,544 @@
     <t>30,04%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>24,05%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
+    <t>28,65%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>29,09%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>25,37%</t>
@@ -701,22 +710,22 @@
     <t>23,29%</t>
   </si>
   <si>
-    <t>27,4%</t>
+    <t>27,33%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>19,03%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
+    <t>25,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE82551-0766-4878-AC0F-C5E5CF329F03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2187BB-8D5F-48C2-81B9-610B4DB53088}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1620,7 +1629,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -1629,13 +1638,13 @@
         <v>37487</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>142</v>
@@ -1644,13 +1653,13 @@
         <v>146430</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1674,13 @@
         <v>73019</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>19</v>
@@ -1680,13 +1689,13 @@
         <v>18592</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -1695,13 +1704,13 @@
         <v>91611</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1766,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1778,13 @@
         <v>119715</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -1784,13 +1793,13 @@
         <v>70104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -1799,13 +1808,13 @@
         <v>189820</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1829,13 @@
         <v>129507</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -1835,13 +1844,13 @@
         <v>52262</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>166</v>
@@ -1850,13 +1859,13 @@
         <v>181769</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1880,13 @@
         <v>141596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -1886,13 +1895,13 @@
         <v>76432</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -1901,13 +1910,13 @@
         <v>218028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1931,13 @@
         <v>168077</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -1937,13 +1946,13 @@
         <v>68928</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>219</v>
@@ -1952,13 +1961,13 @@
         <v>237005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,7 +2023,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2026,13 +2035,13 @@
         <v>157338</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>80</v>
@@ -2041,13 +2050,13 @@
         <v>78363</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>226</v>
@@ -2056,13 +2065,13 @@
         <v>235700</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2086,13 @@
         <v>67882</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>46</v>
@@ -2092,13 +2101,13 @@
         <v>44071</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -2107,13 +2116,13 @@
         <v>111953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2137,13 @@
         <v>80358</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -2143,13 +2152,13 @@
         <v>46742</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -2158,13 +2167,13 @@
         <v>127100</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2188,13 @@
         <v>100857</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -2194,13 +2203,13 @@
         <v>42789</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -2209,13 +2218,13 @@
         <v>143646</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,7 +2280,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2283,13 +2292,13 @@
         <v>162948</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>107</v>
@@ -2298,13 +2307,13 @@
         <v>115231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>279</v>
@@ -2313,13 +2322,13 @@
         <v>278180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2343,13 @@
         <v>104687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -2349,13 +2358,13 @@
         <v>66817</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -2364,13 +2373,13 @@
         <v>171503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2394,13 @@
         <v>162062</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>116</v>
@@ -2400,13 +2409,13 @@
         <v>123283</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -2415,13 +2424,13 @@
         <v>285345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2445,13 @@
         <v>123798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H27" s="7">
         <v>80</v>
@@ -2451,13 +2460,13 @@
         <v>82792</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>209</v>
@@ -2466,13 +2475,13 @@
         <v>206590</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>108</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2523,7 @@
         <v>939</v>
       </c>
       <c r="N28" s="7">
-        <v>941618</v>
+        <v>941617</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2540,13 +2549,13 @@
         <v>491269</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>283</v>
@@ -2555,13 +2564,13 @@
         <v>298092</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>756</v>
@@ -2570,13 +2579,13 @@
         <v>789361</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2600,13 @@
         <v>414776</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>208</v>
@@ -2606,13 +2615,13 @@
         <v>216821</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>607</v>
@@ -2621,13 +2630,13 @@
         <v>631597</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2651,13 @@
         <v>514077</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>277</v>
@@ -2657,13 +2666,13 @@
         <v>289290</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>770</v>
@@ -2672,13 +2681,13 @@
         <v>803366</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2702,13 @@
         <v>482852</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>212</v>
@@ -2708,13 +2717,13 @@
         <v>220116</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>669</v>
@@ -2723,13 +2732,13 @@
         <v>702967</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,7 +2794,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF815FFD-F99C-4799-B3BA-2DC93A69E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FDC1B5-6739-459A-846E-9E76D535E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{353D8815-3F7D-4CF8-B96D-27965B238BFE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{091E9D78-8910-41DA-849D-F3BECFFF8D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
   </si>
   <si>
     <t>10,81%</t>
@@ -86,16 +86,16 @@
     <t>3,27%</t>
   </si>
   <si>
-    <t>26,93%</t>
+    <t>29,7%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>24,88%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>38,73%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>37,1%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>30,04%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>29,62%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,535 +197,538 @@
     <t>14,28%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>24,05%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
   </si>
   <si>
     <t>31,08%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>33,29%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>31,89%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>17,61%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
   </si>
   <si>
     <t>27,35%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
   </si>
   <si>
     <t>21,94%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>25,82%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
   </si>
   <si>
     <t>29,1%</t>
   </si>
   <si>
-    <t>31,8%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
   </si>
   <si>
     <t>26,97%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>21,17%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>27,01%</t>
   </si>
   <si>
-    <t>29,09%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>21,49%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>25,63%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1140,7 +1143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2187BB-8D5F-48C2-81B9-610B4DB53088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9842912-31EC-43DB-8E92-ADA370727B70}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2107,7 +2110,7 @@
         <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>110</v>
@@ -2116,13 +2119,13 @@
         <v>111953</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2140,13 @@
         <v>80358</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -2152,13 +2155,13 @@
         <v>46742</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -2167,13 +2170,13 @@
         <v>127100</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2191,13 @@
         <v>100857</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -2203,13 +2206,13 @@
         <v>42789</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -2218,13 +2221,13 @@
         <v>143646</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2283,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2295,13 @@
         <v>162948</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>107</v>
@@ -2307,13 +2310,13 @@
         <v>115231</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>279</v>
@@ -2322,13 +2325,13 @@
         <v>278180</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2346,13 @@
         <v>104687</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -2358,13 +2361,13 @@
         <v>66817</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -2373,13 +2376,13 @@
         <v>171503</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2397,13 @@
         <v>162062</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>116</v>
@@ -2409,13 +2412,13 @@
         <v>123283</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -2424,13 +2427,13 @@
         <v>285345</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2448,13 @@
         <v>123798</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="H27" s="7">
         <v>80</v>
@@ -2460,13 +2463,13 @@
         <v>82792</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>209</v>
@@ -2475,13 +2478,13 @@
         <v>206590</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2552,13 @@
         <v>491269</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>283</v>
@@ -2564,28 +2567,28 @@
         <v>298092</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M29" s="7">
         <v>756</v>
       </c>
       <c r="N29" s="7">
-        <v>789361</v>
+        <v>789362</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2603,13 @@
         <v>414776</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>208</v>
@@ -2615,13 +2618,13 @@
         <v>216821</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>607</v>
@@ -2630,13 +2633,13 @@
         <v>631597</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,10 +2654,10 @@
         <v>514077</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>215</v>
@@ -2729,16 +2732,16 @@
         <v>669</v>
       </c>
       <c r="N32" s="7">
-        <v>702967</v>
+        <v>702968</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,7 +2783,7 @@
         <v>2802</v>
       </c>
       <c r="N33" s="7">
-        <v>2927292</v>
+        <v>2927293</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2794,7 +2797,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6510-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6510-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47FDC1B5-6739-459A-846E-9E76D535E926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B0E292F-0A11-4FC9-975B-73E6E4A54162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{091E9D78-8910-41DA-849D-F3BECFFF8D7B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BE17B4C7-1556-400F-8A67-8DC41B9450EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="192">
   <si>
     <t>Población según la exposición a movimientos repetitivos de manos o brazos durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -65,399 +65,285 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
   </si>
   <si>
     <t>Muchas veces</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
     <t>18,1%</t>
   </si>
   <si>
@@ -572,9 +458,6 @@
     <t>15,86%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
     <t>29,28%</t>
   </si>
   <si>
@@ -636,9 +519,6 @@
   </si>
   <si>
     <t>26,01%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
   </si>
   <si>
     <t>26,97%</t>
@@ -1143,8 +1023,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9842912-31EC-43DB-8E92-ADA370727B70}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95479950-3FDC-4D70-9E02-D6C540EE6BF8}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1261,10 +1141,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>4545</v>
+        <v>51268</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1276,10 +1156,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>2647</v>
+        <v>34394</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1291,10 +1171,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>7192</v>
+        <v>85662</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1312,10 +1192,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>14162</v>
+        <v>112701</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1327,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7">
-        <v>9485</v>
+        <v>53672</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1342,10 +1222,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="N5" s="7">
-        <v>23647</v>
+        <v>166372</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1363,10 +1243,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D6" s="7">
-        <v>21118</v>
+        <v>130061</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1378,10 +1258,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I6" s="7">
-        <v>5346</v>
+        <v>42833</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1393,10 +1273,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="N6" s="7">
-        <v>26464</v>
+        <v>172894</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1414,10 +1294,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>17101</v>
+        <v>90120</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1429,10 +1309,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>7015</v>
+        <v>25606</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1444,10 +1324,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>24115</v>
+        <v>115727</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1465,10 +1345,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1480,10 +1360,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1495,10 +1375,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>540655</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1518,10 +1398,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D9" s="7">
-        <v>46722</v>
+        <v>119715</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1533,10 +1413,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>31747</v>
+        <v>70104</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1548,10 +1428,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="N9" s="7">
-        <v>78469</v>
+        <v>189820</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1569,10 +1449,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D10" s="7">
-        <v>98538</v>
+        <v>129507</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1584,10 +1464,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>44187</v>
+        <v>52262</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1599,10 +1479,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="N10" s="7">
-        <v>142725</v>
+        <v>181769</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1620,10 +1500,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D11" s="7">
-        <v>108943</v>
+        <v>141596</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1635,10 +1515,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7">
-        <v>37487</v>
+        <v>76432</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1650,10 +1530,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="N11" s="7">
-        <v>146430</v>
+        <v>218028</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1671,10 +1551,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="D12" s="7">
-        <v>73019</v>
+        <v>168077</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1686,10 +1566,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>18592</v>
+        <v>68928</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1701,10 +1581,10 @@
         <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="N12" s="7">
-        <v>91611</v>
+        <v>237005</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1722,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1737,10 +1617,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1752,10 +1632,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>756</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>826621</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1775,49 +1655,49 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D14" s="7">
-        <v>119715</v>
+        <v>157338</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>80</v>
+      </c>
+      <c r="I14" s="7">
+        <v>78363</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>62</v>
-      </c>
-      <c r="I14" s="7">
-        <v>70104</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>226</v>
+      </c>
+      <c r="N14" s="7">
+        <v>235700</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="7">
-        <v>167</v>
-      </c>
-      <c r="N14" s="7">
-        <v>189820</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1706,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D15" s="7">
-        <v>129507</v>
+        <v>67882</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>46</v>
+      </c>
+      <c r="I15" s="7">
+        <v>44071</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="7">
-        <v>49</v>
-      </c>
-      <c r="I15" s="7">
-        <v>52262</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>110</v>
+      </c>
+      <c r="N15" s="7">
+        <v>111953</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="7">
-        <v>166</v>
-      </c>
-      <c r="N15" s="7">
-        <v>181769</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,49 +1757,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>141596</v>
+        <v>80358</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>46</v>
+      </c>
+      <c r="I16" s="7">
+        <v>46742</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="7">
-        <v>73</v>
-      </c>
-      <c r="I16" s="7">
-        <v>76432</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>120</v>
+      </c>
+      <c r="N16" s="7">
+        <v>127100</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="7">
-        <v>204</v>
-      </c>
-      <c r="N16" s="7">
-        <v>218028</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,49 +1808,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7">
-        <v>168077</v>
+        <v>100857</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>40</v>
+      </c>
+      <c r="I17" s="7">
+        <v>42789</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="7">
-        <v>65</v>
-      </c>
-      <c r="I17" s="7">
-        <v>68928</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>131</v>
+      </c>
+      <c r="N17" s="7">
+        <v>143646</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="M17" s="7">
-        <v>219</v>
-      </c>
-      <c r="N17" s="7">
-        <v>237005</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>375</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>406434</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1994,10 +1874,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>211965</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2009,10 +1889,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>756</v>
+        <v>587</v>
       </c>
       <c r="N18" s="7">
-        <v>826621</v>
+        <v>618399</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2026,55 +1906,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D19" s="7">
-        <v>157338</v>
+        <v>162948</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="7">
+        <v>107</v>
+      </c>
+      <c r="I19" s="7">
+        <v>115231</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="7">
-        <v>80</v>
-      </c>
-      <c r="I19" s="7">
-        <v>78363</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>279</v>
+      </c>
+      <c r="N19" s="7">
+        <v>278180</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="M19" s="7">
-        <v>226</v>
-      </c>
-      <c r="N19" s="7">
-        <v>235700</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,49 +1963,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D20" s="7">
-        <v>67882</v>
+        <v>104687</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="7">
+        <v>63</v>
+      </c>
+      <c r="I20" s="7">
+        <v>66817</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="7">
-        <v>46</v>
-      </c>
-      <c r="I20" s="7">
-        <v>44071</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>172</v>
+      </c>
+      <c r="N20" s="7">
+        <v>171503</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="7">
-        <v>110</v>
-      </c>
-      <c r="N20" s="7">
-        <v>111953</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,49 +2014,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D21" s="7">
-        <v>80358</v>
+        <v>162062</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="7">
+        <v>116</v>
+      </c>
+      <c r="I21" s="7">
+        <v>123283</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H21" s="7">
-        <v>46</v>
-      </c>
-      <c r="I21" s="7">
-        <v>46742</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>279</v>
+      </c>
+      <c r="N21" s="7">
+        <v>285345</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="M21" s="7">
-        <v>120</v>
-      </c>
-      <c r="N21" s="7">
-        <v>127100</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,49 +2065,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D22" s="7">
-        <v>100857</v>
+        <v>123798</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="7">
+        <v>80</v>
+      </c>
+      <c r="I22" s="7">
+        <v>82792</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>209</v>
+      </c>
+      <c r="N22" s="7">
+        <v>206590</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="7">
-        <v>40</v>
-      </c>
-      <c r="I22" s="7">
-        <v>42789</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M22" s="7">
-        <v>131</v>
-      </c>
-      <c r="N22" s="7">
-        <v>143646</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,10 +2116,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>375</v>
+        <v>573</v>
       </c>
       <c r="D23" s="7">
-        <v>406434</v>
+        <v>553495</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2251,10 +2131,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="I23" s="7">
-        <v>211965</v>
+        <v>388123</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2266,10 +2146,10 @@
         <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>939</v>
       </c>
       <c r="N23" s="7">
-        <v>618399</v>
+        <v>941617</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2283,55 +2163,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>172</v>
+        <v>473</v>
       </c>
       <c r="D24" s="7">
-        <v>162948</v>
+        <v>491269</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H24" s="7">
+        <v>283</v>
+      </c>
+      <c r="I24" s="7">
+        <v>298092</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="7">
+        <v>756</v>
+      </c>
+      <c r="N24" s="7">
+        <v>789362</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H24" s="7">
-        <v>107</v>
-      </c>
-      <c r="I24" s="7">
-        <v>115231</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M24" s="7">
-        <v>279</v>
-      </c>
-      <c r="N24" s="7">
-        <v>278180</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,49 +2220,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="D25" s="7">
-        <v>104687</v>
+        <v>414776</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="7">
+        <v>208</v>
+      </c>
+      <c r="I25" s="7">
+        <v>216821</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M25" s="7">
+        <v>607</v>
+      </c>
+      <c r="N25" s="7">
+        <v>631597</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H25" s="7">
-        <v>63</v>
-      </c>
-      <c r="I25" s="7">
-        <v>66817</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M25" s="7">
-        <v>172</v>
-      </c>
-      <c r="N25" s="7">
-        <v>171503</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,49 +2271,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>163</v>
+        <v>493</v>
       </c>
       <c r="D26" s="7">
-        <v>162062</v>
+        <v>514077</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="7">
+        <v>277</v>
+      </c>
+      <c r="I26" s="7">
+        <v>289290</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" s="7">
+        <v>770</v>
+      </c>
+      <c r="N26" s="7">
+        <v>803366</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="H26" s="7">
-        <v>116</v>
-      </c>
-      <c r="I26" s="7">
-        <v>123283</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="7">
-        <v>279</v>
-      </c>
-      <c r="N26" s="7">
-        <v>285345</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,49 +2322,49 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>129</v>
+        <v>457</v>
       </c>
       <c r="D27" s="7">
-        <v>123798</v>
+        <v>482852</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="7">
+        <v>212</v>
+      </c>
+      <c r="I27" s="7">
+        <v>220116</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" s="7">
+        <v>669</v>
+      </c>
+      <c r="N27" s="7">
+        <v>702968</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="7">
-        <v>80</v>
-      </c>
-      <c r="I27" s="7">
-        <v>82792</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M27" s="7">
-        <v>209</v>
-      </c>
-      <c r="N27" s="7">
-        <v>206590</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>573</v>
+        <v>1822</v>
       </c>
       <c r="D28" s="7">
-        <v>553495</v>
+        <v>1902974</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2508,10 +2388,10 @@
         <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>366</v>
+        <v>980</v>
       </c>
       <c r="I28" s="7">
-        <v>388123</v>
+        <v>1024319</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2523,10 +2403,10 @@
         <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>939</v>
+        <v>2802</v>
       </c>
       <c r="N28" s="7">
-        <v>941617</v>
+        <v>2927293</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2539,273 +2419,15 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>473</v>
-      </c>
-      <c r="D29" s="7">
-        <v>491269</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="7">
-        <v>283</v>
-      </c>
-      <c r="I29" s="7">
-        <v>298092</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M29" s="7">
-        <v>756</v>
-      </c>
-      <c r="N29" s="7">
-        <v>789362</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>399</v>
-      </c>
-      <c r="D30" s="7">
-        <v>414776</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H30" s="7">
-        <v>208</v>
-      </c>
-      <c r="I30" s="7">
-        <v>216821</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="7">
-        <v>607</v>
-      </c>
-      <c r="N30" s="7">
-        <v>631597</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="7">
-        <v>493</v>
-      </c>
-      <c r="D31" s="7">
-        <v>514077</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="7">
-        <v>277</v>
-      </c>
-      <c r="I31" s="7">
-        <v>289290</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M31" s="7">
-        <v>770</v>
-      </c>
-      <c r="N31" s="7">
-        <v>803366</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="7">
-        <v>457</v>
-      </c>
-      <c r="D32" s="7">
-        <v>482852</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H32" s="7">
-        <v>212</v>
-      </c>
-      <c r="I32" s="7">
-        <v>220116</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M32" s="7">
-        <v>669</v>
-      </c>
-      <c r="N32" s="7">
-        <v>702968</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1822</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1902974</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="7">
-        <v>980</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1024319</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2802</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2927293</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>231</v>
+      <c r="A29" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
